--- a/data/trans_bre/P15E_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P15E_R-Clase-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-18.28920437461322</v>
+        <v>-18.28920437461321</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>-0.2273238409433824</v>
+        <v>-0.2273238409433823</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-55.89833297045607</v>
+        <v>-53.08202272943768</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.6024441019492784</v>
+        <v>-0.5912341452550192</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>34.26915109436856</v>
+        <v>38.50376356656224</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.6519382486634628</v>
+        <v>0.8346877178352452</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-23.85812536813813</v>
+        <v>-23.85812536813814</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.3400650494304652</v>
+        <v>-0.3400650494304653</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-70.58998342557786</v>
+        <v>-70.0296337671939</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8454495600509533</v>
+        <v>-0.8361435367825402</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>32.91333292024161</v>
+        <v>33.9772879015199</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6663320174567102</v>
+        <v>0.7499868335254608</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>16.68240847869924</v>
+        <v>16.68240847869923</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.4192735772115671</v>
+        <v>0.4192735772115669</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-33.67167080960998</v>
+        <v>-35.28238960229518</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.51423470463466</v>
+        <v>-0.5114790398684187</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>59.60140905267942</v>
+        <v>61.09036635857</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>6.311370830573415</v>
+        <v>7.605545262196416</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>13.36624994006773</v>
+        <v>13.36624994006774</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.2119572717068738</v>
+        <v>0.211957271706874</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-13.41220896424802</v>
+        <v>-13.69163348219084</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1821340005488437</v>
+        <v>-0.1777396725150084</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>38.39332081757557</v>
+        <v>38.81036780117193</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8167170843845969</v>
+        <v>0.8401898095257797</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>10.55064674144074</v>
+        <v>10.55064674144072</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.1482608182179822</v>
+        <v>0.1482608182179819</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.94963285436989</v>
+        <v>-14.39308552011186</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.1188941002891911</v>
+        <v>-0.1570135179628847</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>40.87329086970081</v>
+        <v>39.94636491036639</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.9515081502218561</v>
+        <v>0.9709082940915876</v>
       </c>
     </row>
     <row r="19">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>8.684952016396963</v>
+        <v>8.684952016396952</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.1348890285414754</v>
+        <v>0.1348890285414752</v>
       </c>
     </row>
     <row r="23">
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.588454359855378</v>
+        <v>-5.426894626833739</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.06367867088462455</v>
+        <v>-0.07344297991175336</v>
       </c>
     </row>
     <row r="24">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.38865200385466</v>
+        <v>22.74900573624893</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.4694067377995883</v>
+        <v>0.4271014582602972</v>
       </c>
     </row>
     <row r="25">
